--- a/数据整理/stocks/A股/上证主板/600487-亨通光电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600487-亨通光电.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009970</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通内需增长12个月定期开放混合</t>
+          <t>国泰中证全指通信设备ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61.31</t>
+          <t>27.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0268</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>009970</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证全指通信设备ETF</t>
+          <t>财通内需增长12个月定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99.72</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>61.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.58</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.52</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1070</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600487-亨通光电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600487-亨通光电.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6742</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1334</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9376</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8084</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3163</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600487-亨通光电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600487-亨通光电.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,4 +1373,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600487-亨通光电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600487-亨通光电.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1381,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.58</v>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0909</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1471,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.11</v>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6298</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1444,13 +1509,2415 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5867</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9775</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7854</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7778</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6925</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6907</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5194</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3617</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3293</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3174</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2675</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006398</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>33.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>35.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006399</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>35.88</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>33.27</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600487-亨通光电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600487-亨通光电.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3832,7 +3833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3843,17 +3844,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3863,14 +3884,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>63</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.21</v>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8226</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3879,14 +3922,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.58</v>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2228</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3895,14 +3960,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.11</v>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7785</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3911,13 +3998,2279 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7403</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7162</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5646</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3512</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011736</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>35.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>41.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010850</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011737</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>35.86</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010851</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>41.57</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600487-亨通光电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600487-亨通光电.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6169,7 +6170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6180,17 +6181,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6200,14 +6221,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.14</v>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5394</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6216,14 +6259,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>63</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.21</v>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3736</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6232,14 +6297,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.58</v>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1870</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -6248,14 +6335,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.11</v>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9883</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -6264,13 +6373,2599 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013534</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8779</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8272</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6592</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6506</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方安泰混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6432</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012785</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6170</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5261</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5163</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4539</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4367</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3382</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3268</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3208</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3145</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>37.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2937</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2687</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2191</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>69.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014756</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华成长领航两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013535</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014499</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012786</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014051</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012220</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方安泰混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014757</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华成长领航两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012997</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>69</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600487-亨通光电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600487-亨通光电.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>321</v>
+        <v>148</v>
       </c>
       <c r="D2" t="n">
-        <v>52.13</v>
+        <v>24.52</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>321</v>
       </c>
       <c r="D3" t="n">
-        <v>17.09</v>
+        <v>52.13</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>10.14</v>
+        <v>17.09</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>15.21</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D6" t="n">
-        <v>11.58</v>
+        <v>15.21</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>1.11</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.36</v>
       </c>
     </row>
@@ -600,6 +617,5682 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H149"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6961</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信兴润一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2018</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013797</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1702</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0010</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信健康民生混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8438</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015396</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7739</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7629</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7385</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6325</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5299</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4481</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012985</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4417</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4408</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3999</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3997</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3906</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3883</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3825</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信改革红利股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3689</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3661</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3540</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3484</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3210</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2728</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012917</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2695</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信优势动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2238</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012445</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华富新能源股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013495</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信澳产业优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014781</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>建信兴衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015627</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>圆信永丰弘阳股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时周期优选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013326</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银双息回报混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>69.91</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华商价值共享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012986</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>71.48</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015048</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>015585</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>015031</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014695</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011523</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>新疆前海联合产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>61.65</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014782</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>建信兴衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>95.75</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014696</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>015030</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011524</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>新疆前海联合产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>61.65</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>016269</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>建信改革红利股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015217</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏扬成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>014913</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>博时研究回报混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>013798</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>95.96</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>013496</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>信澳产业优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>50.39</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>014989</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>013327</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>015772</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>014914</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>博时研究回报混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>012918</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>博时周期优选混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>012926</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012891</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001905</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华安安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>012659</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华安安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>012927</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>014454</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中银双息回报混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>69.91</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>014335</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>70.42</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>016461</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>015218</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>鹏扬成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>015936</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>70.64</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>014282</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>014051</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>015628</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>圆信永丰弘阳股票C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>017194</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12835,7 +18528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15513,7 +21206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17849,7 +23542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20299,7 +25992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21001,7 +26694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21095,7 +26788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
